--- a/results/150514-X09.2-1506-2015-German_Championships_(Open)-Co-op.xlsx
+++ b/results/150514-X09.2-1506-2015-German_Championships_(Open)-Co-op.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Desktop\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80155860-AD8E-4F64-897B-008709975DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="135" windowWidth="19620" windowHeight="9000"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="19620" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X08.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">X08.2!#REF!</definedName>
-    <definedName name="Print_Area" localSheetId="0">X08.2!$A$1:$O$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'X08.2'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'X08.2'!$A$1:$O$73</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="2" shapeId="0">
+    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="2" shapeId="0">
+    <comment ref="P17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0">
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0" shapeId="0">
+    <comment ref="B56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="0" shapeId="0">
+    <comment ref="F56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H56" authorId="0" shapeId="0">
+    <comment ref="H56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E57" authorId="1" shapeId="0">
+    <comment ref="E57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -698,9 +699,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>14.-17.05.2015</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -720,12 +718,15 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>14.05.2015-17.05.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2220,6 +2221,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -2232,30 +2269,6 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2304,21 +2317,9 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2417,6 +2418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2452,6 +2470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2627,45 +2662,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle12">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="I4" sqref="I4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="3.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.3984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="3.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="1" style="1" customWidth="1"/>
-    <col min="10" max="13" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="1.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="7.265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.1328125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="1.265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.73046875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.59765625" style="4" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="17" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="11.5703125" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5703125" style="1"/>
+    <col min="21" max="21" width="16.3984375" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.59765625" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="11.59765625" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="10.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="113"/>
       <c r="D2" s="113"/>
@@ -2674,7 +2709,7 @@
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="I2" s="115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="116"/>
       <c r="K2" s="116"/>
@@ -2683,9 +2718,9 @@
       <c r="N2" s="1"/>
       <c r="T2" s="104"/>
     </row>
-    <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
@@ -2694,7 +2729,7 @@
       <c r="G3" s="107"/>
       <c r="H3" s="107"/>
       <c r="I3" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="119"/>
       <c r="K3" s="119"/>
@@ -2702,15 +2737,15 @@
       <c r="M3" s="120"/>
       <c r="N3" s="1"/>
       <c r="T3" s="104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="109"/>
       <c r="D4" s="109"/>
@@ -2719,7 +2754,7 @@
       <c r="G4" s="109"/>
       <c r="H4" s="109"/>
       <c r="I4" s="121" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J4" s="122"/>
       <c r="K4" s="122"/>
@@ -2733,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="108" t="s">
         <v>68</v>
       </c>
@@ -2753,7 +2788,7 @@
       <c r="N5" s="1"/>
       <c r="T5" s="104"/>
     </row>
-    <row r="6" spans="1:24" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="110" t="s">
         <v>66</v>
       </c>
@@ -2781,7 +2816,7 @@
       <c r="W6" s="111"/>
       <c r="X6" s="111"/>
     </row>
-    <row r="7" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="108" t="s">
         <v>64</v>
       </c>
@@ -2806,7 +2841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="110" t="s">
         <v>62</v>
       </c>
@@ -2830,7 +2865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="108" t="s">
         <v>59</v>
       </c>
@@ -2852,7 +2887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="110" t="s">
         <v>57</v>
       </c>
@@ -2870,7 +2905,7 @@
       <c r="N10" s="1"/>
       <c r="T10" s="104"/>
     </row>
-    <row r="11" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="108" t="s">
         <v>56</v>
       </c>
@@ -2890,7 +2925,7 @@
       <c r="N11" s="1"/>
       <c r="T11" s="104"/>
     </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="106" t="s">
         <v>55</v>
       </c>
@@ -2910,7 +2945,7 @@
       <c r="N12" s="1"/>
       <c r="T12" s="104"/>
     </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="136"/>
       <c r="C13" s="137"/>
       <c r="D13" s="137"/>
@@ -2926,12 +2961,12 @@
       <c r="N13" s="1"/>
       <c r="T13" s="104"/>
     </row>
-    <row r="14" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="10.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P14" s="103"/>
       <c r="Q14" s="103"/>
       <c r="R14" s="103"/>
     </row>
-    <row r="15" spans="1:24" s="57" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="57" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="102" t="s">
         <v>34</v>
       </c>
@@ -2961,7 +2996,7 @@
       <c r="W15" s="92"/>
       <c r="X15" s="92"/>
     </row>
-    <row r="16" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="99"/>
       <c r="B16" s="60" t="s">
         <v>11</v>
@@ -3006,7 +3041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="99"/>
       <c r="B17" s="82"/>
       <c r="C17" s="81"/>
@@ -3038,7 +3073,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="147">
         <v>1</v>
@@ -3097,7 +3132,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="148"/>
       <c r="C19" s="35">
@@ -3154,7 +3189,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="149"/>
       <c r="C20" s="23">
@@ -3211,7 +3246,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="147">
         <v>2</v>
@@ -3270,7 +3305,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="148"/>
       <c r="C22" s="35">
@@ -3327,7 +3362,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="149"/>
       <c r="C23" s="23">
@@ -3384,7 +3419,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="147">
         <v>3</v>
@@ -3443,7 +3478,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="148"/>
       <c r="C25" s="35">
@@ -3500,7 +3535,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="149"/>
       <c r="C26" s="23">
@@ -3557,7 +3592,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="147">
         <v>4</v>
@@ -3616,7 +3651,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="148"/>
       <c r="C28" s="35">
@@ -3673,7 +3708,7 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="149"/>
       <c r="C29" s="23">
@@ -3730,7 +3765,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="147">
         <v>5</v>
@@ -3789,7 +3824,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="148"/>
       <c r="C31" s="35">
@@ -3846,7 +3881,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="149"/>
       <c r="C32" s="23">
@@ -3903,7 +3938,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="147">
         <v>6</v>
@@ -3962,7 +3997,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="148"/>
       <c r="C34" s="35">
@@ -4019,7 +4054,7 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="149"/>
       <c r="C35" s="23">
@@ -4076,7 +4111,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -4099,7 +4134,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="3" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="69" t="s">
         <v>34</v>
@@ -4130,14 +4165,14 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="150" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
-      <c r="E38" s="171" t="s">
+      <c r="E38" s="153" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="156" t="s">
@@ -4146,11 +4181,11 @@
       <c r="G38" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="150" t="s">
+      <c r="H38" s="159" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="83"/>
-      <c r="J38" s="153" t="s">
+      <c r="J38" s="150" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="156" t="s">
@@ -4159,90 +4194,90 @@
       <c r="L38" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="M38" s="161" t="s">
+      <c r="M38" s="164" t="s">
         <v>5</v>
       </c>
       <c r="N38" s="58"/>
       <c r="O38" s="57"/>
-      <c r="P38" s="162" t="s">
+      <c r="P38" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="164"/>
+      <c r="Q38" s="166"/>
+      <c r="R38" s="167"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="154"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="95"/>
       <c r="D39" s="95"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="151"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="160"/>
       <c r="I39" s="83"/>
-      <c r="J39" s="154"/>
-      <c r="K39" s="157" t="s">
+      <c r="J39" s="151"/>
+      <c r="K39" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="159"/>
-      <c r="M39" s="151"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="160"/>
       <c r="N39" s="58"/>
       <c r="O39" s="57"/>
-      <c r="P39" s="165"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="167"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="169"/>
+      <c r="R39" s="170"/>
       <c r="S39" s="4"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="B40" s="154"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="95"/>
       <c r="D40" s="95"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="151"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="160"/>
       <c r="I40" s="83"/>
-      <c r="J40" s="154"/>
-      <c r="K40" s="157" t="s">
+      <c r="J40" s="151"/>
+      <c r="K40" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="159"/>
-      <c r="M40" s="151"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="160"/>
       <c r="N40" s="58"/>
       <c r="O40" s="57"/>
-      <c r="P40" s="165"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="167"/>
+      <c r="P40" s="168"/>
+      <c r="Q40" s="169"/>
+      <c r="R40" s="170"/>
       <c r="S40" s="4"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="155"/>
+    <row r="41" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="152"/>
       <c r="C41" s="94"/>
       <c r="D41" s="94"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="152"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="161"/>
       <c r="I41" s="56"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="158" t="s">
+      <c r="J41" s="152"/>
+      <c r="K41" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="160"/>
-      <c r="M41" s="152"/>
+      <c r="L41" s="163"/>
+      <c r="M41" s="161"/>
       <c r="N41" s="1"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="169"/>
-      <c r="R41" s="170"/>
-    </row>
-    <row r="42" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="171"/>
+      <c r="Q41" s="172"/>
+      <c r="R41" s="173"/>
+    </row>
+    <row r="42" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="82"/>
       <c r="C42" s="81"/>
       <c r="D42" s="81"/>
@@ -4272,7 +4307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="147">
         <v>1</v>
       </c>
@@ -4333,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="148"/>
       <c r="C44" s="35">
         <v>1</v>
@@ -4389,7 +4424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="57" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="57" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="149"/>
       <c r="C45" s="23">
         <v>1</v>
@@ -4448,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="147">
         <v>2</v>
       </c>
@@ -4509,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="148"/>
       <c r="C47" s="35">
         <v>2</v>
@@ -4565,7 +4600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="149"/>
       <c r="C48" s="23">
         <v>2</v>
@@ -4621,7 +4656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="147">
         <v>3</v>
       </c>
@@ -4682,7 +4717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="148"/>
       <c r="C50" s="35">
         <v>3</v>
@@ -4738,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="149"/>
       <c r="C51" s="23">
         <v>3</v>
@@ -4794,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="147">
         <v>4</v>
       </c>
@@ -4855,7 +4890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="148"/>
       <c r="C53" s="35">
         <v>4</v>
@@ -4911,7 +4946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="149"/>
       <c r="C54" s="23">
         <v>4</v>
@@ -4967,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="74"/>
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
@@ -4986,7 +5021,7 @@
       <c r="Q55" s="70"/>
       <c r="R55" s="70"/>
     </row>
-    <row r="56" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="70"/>
       <c r="B56" s="69" t="s">
         <v>34</v>
@@ -5015,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="70"/>
       <c r="B57" s="60" t="s">
         <v>11</v>
@@ -5054,7 +5089,7 @@
       <c r="Q57" s="145"/>
       <c r="R57" s="146"/>
     </row>
-    <row r="58" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="70"/>
       <c r="B58" s="82"/>
       <c r="C58" s="81"/>
@@ -5079,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="70"/>
       <c r="B59" s="147">
         <v>1</v>
@@ -5141,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="70"/>
       <c r="B60" s="148"/>
       <c r="C60" s="35">
@@ -5198,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="70"/>
       <c r="B61" s="149"/>
       <c r="C61" s="23">
@@ -5255,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="70"/>
       <c r="B62" s="147">
         <v>2</v>
@@ -5317,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="70"/>
       <c r="B63" s="148"/>
       <c r="C63" s="35">
@@ -5374,7 +5409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="70"/>
       <c r="B64" s="149"/>
       <c r="C64" s="23">
@@ -5431,7 +5466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="70"/>
       <c r="B65" s="147">
         <v>3</v>
@@ -5493,7 +5528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="70"/>
       <c r="B66" s="148"/>
       <c r="C66" s="35">
@@ -5550,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="70"/>
       <c r="B67" s="149"/>
       <c r="C67" s="23">
@@ -5607,7 +5642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="70"/>
       <c r="B68" s="147">
         <v>4</v>
@@ -5669,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="70"/>
       <c r="B69" s="148"/>
       <c r="C69" s="35">
@@ -5726,7 +5761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="70"/>
       <c r="B70" s="149"/>
       <c r="C70" s="23">
@@ -5783,7 +5818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="70"/>
       <c r="B71" s="147">
         <v>5</v>
@@ -5845,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="70"/>
       <c r="B72" s="148"/>
       <c r="C72" s="35">
@@ -5902,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="70"/>
       <c r="B73" s="149"/>
       <c r="C73" s="23">
@@ -6014,34 +6049,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E59:E73 E18:E35 E43:E54">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E59:E73 E18:E35 E43:E54" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B56 B15 B37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B56 B15 B37" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H56:I56 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I37:I40 H37 H56:I56 I15" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F37 F56">
+    <dataValidation type="list" allowBlank="1" sqref="F37 F56" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
